--- a/artfynd/A 29829-2023.xlsx
+++ b/artfynd/A 29829-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111220320</v>
+        <v>111220492</v>
       </c>
       <c r="B2" t="n">
-        <v>56398</v>
+        <v>78579</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,27 +696,26 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>100109</v>
+        <v>2081</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
@@ -724,10 +723,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>444551.3204532009</v>
+        <v>444980.7571671739</v>
       </c>
       <c r="R2" t="n">
-        <v>6908122.70398636</v>
+        <v>6908169.141194743</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -772,17 +771,13 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
-        </is>
-      </c>
       <c r="AD2" t="b">
         <v>0</v>
       </c>
       <c r="AE2" t="b">
         <v>0</v>
       </c>
+      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="b">
         <v>0</v>
       </c>
@@ -801,7 +796,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111220242</v>
+        <v>111220320</v>
       </c>
       <c r="B3" t="n">
         <v>56398</v>
@@ -845,10 +840,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>444846.8354576329</v>
+        <v>444551.3204532009</v>
       </c>
       <c r="R3" t="n">
-        <v>6908412.339327201</v>
+        <v>6908122.70398636</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -922,10 +917,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111220492</v>
+        <v>111220745</v>
       </c>
       <c r="B4" t="n">
-        <v>78579</v>
+        <v>77515</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -938,21 +933,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2081</v>
+        <v>6425</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -965,10 +960,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>444980.7571671739</v>
+        <v>444461.9626864219</v>
       </c>
       <c r="R4" t="n">
-        <v>6908169.141194743</v>
+        <v>6908269.809790779</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1011,6 +1006,11 @@
       <c r="AB4" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>Rikligt i stora delen av avverkningsanmälan</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1038,10 +1038,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111220569</v>
+        <v>111220242</v>
       </c>
       <c r="B5" t="n">
-        <v>78578</v>
+        <v>56398</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1054,26 +1054,27 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
@@ -1081,10 +1082,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>444824.0379194368</v>
+        <v>444846.8354576329</v>
       </c>
       <c r="R5" t="n">
-        <v>6908244.295427294</v>
+        <v>6908412.339327201</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1129,13 +1130,17 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
+        </is>
+      </c>
       <c r="AD5" t="b">
         <v>0</v>
       </c>
       <c r="AE5" t="b">
         <v>0</v>
       </c>
-      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>
@@ -1386,10 +1391,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111220745</v>
+        <v>111220569</v>
       </c>
       <c r="B8" t="n">
-        <v>77515</v>
+        <v>78578</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1402,21 +1407,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1429,10 +1434,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>444461.9626864219</v>
+        <v>444824.0379194368</v>
       </c>
       <c r="R8" t="n">
-        <v>6908269.809790779</v>
+        <v>6908244.295427294</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1475,11 +1480,6 @@
       <c r="AB8" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>Rikligt i stora delen av avverkningsanmälan</t>
         </is>
       </c>
       <c r="AD8" t="b">
